--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>1.185545</v>
       </c>
       <c r="O2">
-        <v>0.8375204824443508</v>
+        <v>0.5489460219708985</v>
       </c>
       <c r="P2">
-        <v>0.8854778187076324</v>
+        <v>0.6460858926464538</v>
       </c>
       <c r="Q2">
-        <v>59.95936187801946</v>
+        <v>57.21570777540833</v>
       </c>
       <c r="R2">
-        <v>539.634256902175</v>
+        <v>514.941369978675</v>
       </c>
       <c r="S2">
-        <v>0.2261924614626008</v>
+        <v>0.1333964268908062</v>
       </c>
       <c r="T2">
-        <v>0.2464609295900098</v>
+        <v>0.1621757528544414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0766655</v>
+        <v>0.32471</v>
       </c>
       <c r="N3">
-        <v>0.153331</v>
+        <v>0.64942</v>
       </c>
       <c r="O3">
-        <v>0.1624795175556492</v>
+        <v>0.4510539780291016</v>
       </c>
       <c r="P3">
-        <v>0.1145221812923676</v>
+        <v>0.3539141073535463</v>
       </c>
       <c r="Q3">
-        <v>11.63215514736083</v>
+        <v>47.01258696655</v>
       </c>
       <c r="R3">
-        <v>69.792930884165</v>
+        <v>282.0755217993</v>
       </c>
       <c r="S3">
-        <v>0.04388148443355847</v>
+        <v>0.1096082066282942</v>
       </c>
       <c r="T3">
-        <v>0.03187572027629976</v>
+        <v>0.08883692936053154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
         <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J4">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>1.185545</v>
       </c>
       <c r="O4">
-        <v>0.8375204824443508</v>
+        <v>0.5489460219708985</v>
       </c>
       <c r="P4">
-        <v>0.8854778187076324</v>
+        <v>0.6460858926464538</v>
       </c>
       <c r="Q4">
         <v>32.50324592323167</v>
@@ -700,10 +700,10 @@
         <v>292.529213309085</v>
       </c>
       <c r="S4">
-        <v>0.1226162015509239</v>
+        <v>0.07578018409790306</v>
       </c>
       <c r="T4">
-        <v>0.1336034933331913</v>
+        <v>0.0921292173559157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
         <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0766655</v>
+        <v>0.32471</v>
       </c>
       <c r="N5">
-        <v>0.153331</v>
+        <v>0.64942</v>
       </c>
       <c r="O5">
-        <v>0.1624795175556492</v>
+        <v>0.4510539780291016</v>
       </c>
       <c r="P5">
-        <v>0.1145221812923676</v>
+        <v>0.3539141073535463</v>
       </c>
       <c r="Q5">
-        <v>6.3056508196505</v>
+        <v>26.70703090241</v>
       </c>
       <c r="R5">
-        <v>37.83390491790301</v>
+        <v>160.24218541446</v>
       </c>
       <c r="S5">
-        <v>0.02378762273891507</v>
+        <v>0.06226651095933963</v>
       </c>
       <c r="T5">
-        <v>0.01727944298720972</v>
+        <v>0.0504667105299915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H6">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I6">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J6">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>1.185545</v>
       </c>
       <c r="O6">
-        <v>0.8375204824443508</v>
+        <v>0.5489460219708985</v>
       </c>
       <c r="P6">
-        <v>0.8854778187076324</v>
+        <v>0.6460858926464538</v>
       </c>
       <c r="Q6">
-        <v>48.782932513315</v>
+        <v>64.75410841641056</v>
       </c>
       <c r="R6">
-        <v>439.046392619835</v>
+        <v>582.786975747695</v>
       </c>
       <c r="S6">
-        <v>0.1840301703843807</v>
+        <v>0.1509719450322295</v>
       </c>
       <c r="T6">
-        <v>0.2005205945956854</v>
+        <v>0.1835430634550873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H7">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I7">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J7">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0766655</v>
+        <v>0.32471</v>
       </c>
       <c r="N7">
-        <v>0.153331</v>
+        <v>0.64942</v>
       </c>
       <c r="O7">
-        <v>0.1624795175556492</v>
+        <v>0.4510539780291016</v>
       </c>
       <c r="P7">
-        <v>0.1145221812923676</v>
+        <v>0.3539141073535463</v>
       </c>
       <c r="Q7">
-        <v>9.4639205916255</v>
+        <v>53.20668522213667</v>
       </c>
       <c r="R7">
-        <v>56.783523549753</v>
+        <v>319.24011133282</v>
       </c>
       <c r="S7">
-        <v>0.03570197258038389</v>
+        <v>0.124049530649824</v>
       </c>
       <c r="T7">
-        <v>0.02593408372516524</v>
+        <v>0.1005415536896557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H8">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I8">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J8">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>1.185545</v>
       </c>
       <c r="O8">
-        <v>0.8375204824443508</v>
+        <v>0.5489460219708985</v>
       </c>
       <c r="P8">
-        <v>0.8854778187076324</v>
+        <v>0.6460858926464538</v>
       </c>
       <c r="Q8">
-        <v>19.7718526409375</v>
+        <v>22.5347640778925</v>
       </c>
       <c r="R8">
-        <v>118.631115845625</v>
+        <v>135.208584467355</v>
       </c>
       <c r="S8">
-        <v>0.0745879188245491</v>
+        <v>0.0525390163942038</v>
       </c>
       <c r="T8">
-        <v>0.05418102115580319</v>
+        <v>0.04258262252124879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H9">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I9">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J9">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.0766655</v>
+        <v>0.32471</v>
       </c>
       <c r="N9">
-        <v>0.153331</v>
+        <v>0.64942</v>
       </c>
       <c r="O9">
-        <v>0.1624795175556492</v>
+        <v>0.4510539780291016</v>
       </c>
       <c r="P9">
-        <v>0.1145221812923676</v>
+        <v>0.3539141073535463</v>
       </c>
       <c r="Q9">
-        <v>3.83575225396875</v>
+        <v>18.516201182745</v>
       </c>
       <c r="R9">
-        <v>15.343009015875</v>
+        <v>74.06480473098</v>
       </c>
       <c r="S9">
-        <v>0.0144701046960937</v>
+        <v>0.04316987717892255</v>
       </c>
       <c r="T9">
-        <v>0.007007435529516349</v>
+        <v>0.02332598654437359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H10">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I10">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J10">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>1.185545</v>
       </c>
       <c r="O10">
-        <v>0.8375204824443508</v>
+        <v>0.5489460219708985</v>
       </c>
       <c r="P10">
-        <v>0.8854778187076324</v>
+        <v>0.6460858926464538</v>
       </c>
       <c r="Q10">
-        <v>60.99351475742778</v>
+        <v>58.44327178338889</v>
       </c>
       <c r="R10">
-        <v>548.9416328168501</v>
+        <v>525.9894460505001</v>
       </c>
       <c r="S10">
-        <v>0.2300937302218962</v>
+        <v>0.136258449555756</v>
       </c>
       <c r="T10">
-        <v>0.2507117800329429</v>
+        <v>0.1656552364597606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H11">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I11">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J11">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0766655</v>
+        <v>0.32471</v>
       </c>
       <c r="N11">
-        <v>0.153331</v>
+        <v>0.64942</v>
       </c>
       <c r="O11">
-        <v>0.1624795175556492</v>
+        <v>0.4510539780291016</v>
       </c>
       <c r="P11">
-        <v>0.1145221812923676</v>
+        <v>0.3539141073535463</v>
       </c>
       <c r="Q11">
-        <v>11.83278147763833</v>
+        <v>48.02124283966667</v>
       </c>
       <c r="R11">
-        <v>70.99668886583</v>
+        <v>288.127457038</v>
       </c>
       <c r="S11">
-        <v>0.04463833310669806</v>
+        <v>0.1119598526127212</v>
       </c>
       <c r="T11">
-        <v>0.03242549877417657</v>
+        <v>0.09074292722899402</v>
       </c>
     </row>
   </sheetData>
